--- a/municipal/დასაქმება და ხელფასები/დასაქმებულები/მცხეთა-მთიანეთი/მცხეთა.xlsx
+++ b/municipal/დასაქმება და ხელფასები/დასაქმებულები/მცხეთა-მთიანეთი/მცხეთა.xlsx
@@ -1,72 +1,263 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="19185" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="მცხეთა" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>ბიზნეს სექტორის დასაქმებულთა რაოდენობა მცხეთის მუნიციპალიტეტში</t>
+  </si>
   <si>
     <t>ერთეული</t>
   </si>
   <si>
-    <t>დასაქმებულთა რაოდენობა, სულ</t>
+    <t>დასაქმებულთა რაოდენობა</t>
   </si>
   <si>
-    <t>ბიზნეს სექტორის დასაქმებულთა რაოდენობა მცხეთის მუნიციპალიტეტში</t>
+    <t>მათ შორის:   ქალი</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            კაცი</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#\ ##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Sylfaen"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Sylfaen"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="ARIAL"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Sylfaen"/>
-      <family val="1"/>
-      <charset val="204"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,8 +270,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -92,67 +469,383 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -190,9 +883,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,7 +920,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,7 +955,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -430,293 +1123,361 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="256" width="9.140625" style="1"/>
-    <col min="257" max="257" width="27.5703125" style="1" customWidth="1"/>
-    <col min="258" max="265" width="13" style="1" customWidth="1"/>
-    <col min="266" max="512" width="9.140625" style="1"/>
-    <col min="513" max="513" width="27.5703125" style="1" customWidth="1"/>
-    <col min="514" max="521" width="13" style="1" customWidth="1"/>
-    <col min="522" max="768" width="9.140625" style="1"/>
-    <col min="769" max="769" width="27.5703125" style="1" customWidth="1"/>
-    <col min="770" max="777" width="13" style="1" customWidth="1"/>
-    <col min="778" max="1024" width="9.140625" style="1"/>
-    <col min="1025" max="1025" width="27.5703125" style="1" customWidth="1"/>
-    <col min="1026" max="1033" width="13" style="1" customWidth="1"/>
-    <col min="1034" max="1280" width="9.140625" style="1"/>
-    <col min="1281" max="1281" width="27.5703125" style="1" customWidth="1"/>
-    <col min="1282" max="1289" width="13" style="1" customWidth="1"/>
-    <col min="1290" max="1536" width="9.140625" style="1"/>
-    <col min="1537" max="1537" width="27.5703125" style="1" customWidth="1"/>
-    <col min="1538" max="1545" width="13" style="1" customWidth="1"/>
-    <col min="1546" max="1792" width="9.140625" style="1"/>
-    <col min="1793" max="1793" width="27.5703125" style="1" customWidth="1"/>
-    <col min="1794" max="1801" width="13" style="1" customWidth="1"/>
-    <col min="1802" max="2048" width="9.140625" style="1"/>
-    <col min="2049" max="2049" width="27.5703125" style="1" customWidth="1"/>
-    <col min="2050" max="2057" width="13" style="1" customWidth="1"/>
-    <col min="2058" max="2304" width="9.140625" style="1"/>
-    <col min="2305" max="2305" width="27.5703125" style="1" customWidth="1"/>
-    <col min="2306" max="2313" width="13" style="1" customWidth="1"/>
-    <col min="2314" max="2560" width="9.140625" style="1"/>
-    <col min="2561" max="2561" width="27.5703125" style="1" customWidth="1"/>
-    <col min="2562" max="2569" width="13" style="1" customWidth="1"/>
-    <col min="2570" max="2816" width="9.140625" style="1"/>
-    <col min="2817" max="2817" width="27.5703125" style="1" customWidth="1"/>
-    <col min="2818" max="2825" width="13" style="1" customWidth="1"/>
-    <col min="2826" max="3072" width="9.140625" style="1"/>
-    <col min="3073" max="3073" width="27.5703125" style="1" customWidth="1"/>
-    <col min="3074" max="3081" width="13" style="1" customWidth="1"/>
-    <col min="3082" max="3328" width="9.140625" style="1"/>
-    <col min="3329" max="3329" width="27.5703125" style="1" customWidth="1"/>
-    <col min="3330" max="3337" width="13" style="1" customWidth="1"/>
-    <col min="3338" max="3584" width="9.140625" style="1"/>
-    <col min="3585" max="3585" width="27.5703125" style="1" customWidth="1"/>
-    <col min="3586" max="3593" width="13" style="1" customWidth="1"/>
-    <col min="3594" max="3840" width="9.140625" style="1"/>
-    <col min="3841" max="3841" width="27.5703125" style="1" customWidth="1"/>
-    <col min="3842" max="3849" width="13" style="1" customWidth="1"/>
-    <col min="3850" max="4096" width="9.140625" style="1"/>
-    <col min="4097" max="4097" width="27.5703125" style="1" customWidth="1"/>
-    <col min="4098" max="4105" width="13" style="1" customWidth="1"/>
-    <col min="4106" max="4352" width="9.140625" style="1"/>
-    <col min="4353" max="4353" width="27.5703125" style="1" customWidth="1"/>
-    <col min="4354" max="4361" width="13" style="1" customWidth="1"/>
-    <col min="4362" max="4608" width="9.140625" style="1"/>
-    <col min="4609" max="4609" width="27.5703125" style="1" customWidth="1"/>
-    <col min="4610" max="4617" width="13" style="1" customWidth="1"/>
-    <col min="4618" max="4864" width="9.140625" style="1"/>
-    <col min="4865" max="4865" width="27.5703125" style="1" customWidth="1"/>
-    <col min="4866" max="4873" width="13" style="1" customWidth="1"/>
-    <col min="4874" max="5120" width="9.140625" style="1"/>
-    <col min="5121" max="5121" width="27.5703125" style="1" customWidth="1"/>
-    <col min="5122" max="5129" width="13" style="1" customWidth="1"/>
-    <col min="5130" max="5376" width="9.140625" style="1"/>
-    <col min="5377" max="5377" width="27.5703125" style="1" customWidth="1"/>
-    <col min="5378" max="5385" width="13" style="1" customWidth="1"/>
-    <col min="5386" max="5632" width="9.140625" style="1"/>
-    <col min="5633" max="5633" width="27.5703125" style="1" customWidth="1"/>
-    <col min="5634" max="5641" width="13" style="1" customWidth="1"/>
-    <col min="5642" max="5888" width="9.140625" style="1"/>
-    <col min="5889" max="5889" width="27.5703125" style="1" customWidth="1"/>
-    <col min="5890" max="5897" width="13" style="1" customWidth="1"/>
-    <col min="5898" max="6144" width="9.140625" style="1"/>
-    <col min="6145" max="6145" width="27.5703125" style="1" customWidth="1"/>
-    <col min="6146" max="6153" width="13" style="1" customWidth="1"/>
-    <col min="6154" max="6400" width="9.140625" style="1"/>
-    <col min="6401" max="6401" width="27.5703125" style="1" customWidth="1"/>
-    <col min="6402" max="6409" width="13" style="1" customWidth="1"/>
-    <col min="6410" max="6656" width="9.140625" style="1"/>
-    <col min="6657" max="6657" width="27.5703125" style="1" customWidth="1"/>
-    <col min="6658" max="6665" width="13" style="1" customWidth="1"/>
-    <col min="6666" max="6912" width="9.140625" style="1"/>
-    <col min="6913" max="6913" width="27.5703125" style="1" customWidth="1"/>
-    <col min="6914" max="6921" width="13" style="1" customWidth="1"/>
-    <col min="6922" max="7168" width="9.140625" style="1"/>
-    <col min="7169" max="7169" width="27.5703125" style="1" customWidth="1"/>
-    <col min="7170" max="7177" width="13" style="1" customWidth="1"/>
-    <col min="7178" max="7424" width="9.140625" style="1"/>
-    <col min="7425" max="7425" width="27.5703125" style="1" customWidth="1"/>
-    <col min="7426" max="7433" width="13" style="1" customWidth="1"/>
-    <col min="7434" max="7680" width="9.140625" style="1"/>
-    <col min="7681" max="7681" width="27.5703125" style="1" customWidth="1"/>
-    <col min="7682" max="7689" width="13" style="1" customWidth="1"/>
-    <col min="7690" max="7936" width="9.140625" style="1"/>
-    <col min="7937" max="7937" width="27.5703125" style="1" customWidth="1"/>
-    <col min="7938" max="7945" width="13" style="1" customWidth="1"/>
-    <col min="7946" max="8192" width="9.140625" style="1"/>
-    <col min="8193" max="8193" width="27.5703125" style="1" customWidth="1"/>
-    <col min="8194" max="8201" width="13" style="1" customWidth="1"/>
-    <col min="8202" max="8448" width="9.140625" style="1"/>
-    <col min="8449" max="8449" width="27.5703125" style="1" customWidth="1"/>
-    <col min="8450" max="8457" width="13" style="1" customWidth="1"/>
-    <col min="8458" max="8704" width="9.140625" style="1"/>
-    <col min="8705" max="8705" width="27.5703125" style="1" customWidth="1"/>
-    <col min="8706" max="8713" width="13" style="1" customWidth="1"/>
-    <col min="8714" max="8960" width="9.140625" style="1"/>
-    <col min="8961" max="8961" width="27.5703125" style="1" customWidth="1"/>
-    <col min="8962" max="8969" width="13" style="1" customWidth="1"/>
-    <col min="8970" max="9216" width="9.140625" style="1"/>
-    <col min="9217" max="9217" width="27.5703125" style="1" customWidth="1"/>
-    <col min="9218" max="9225" width="13" style="1" customWidth="1"/>
-    <col min="9226" max="9472" width="9.140625" style="1"/>
-    <col min="9473" max="9473" width="27.5703125" style="1" customWidth="1"/>
-    <col min="9474" max="9481" width="13" style="1" customWidth="1"/>
-    <col min="9482" max="9728" width="9.140625" style="1"/>
-    <col min="9729" max="9729" width="27.5703125" style="1" customWidth="1"/>
-    <col min="9730" max="9737" width="13" style="1" customWidth="1"/>
-    <col min="9738" max="9984" width="9.140625" style="1"/>
-    <col min="9985" max="9985" width="27.5703125" style="1" customWidth="1"/>
-    <col min="9986" max="9993" width="13" style="1" customWidth="1"/>
-    <col min="9994" max="10240" width="9.140625" style="1"/>
-    <col min="10241" max="10241" width="27.5703125" style="1" customWidth="1"/>
-    <col min="10242" max="10249" width="13" style="1" customWidth="1"/>
-    <col min="10250" max="10496" width="9.140625" style="1"/>
-    <col min="10497" max="10497" width="27.5703125" style="1" customWidth="1"/>
-    <col min="10498" max="10505" width="13" style="1" customWidth="1"/>
-    <col min="10506" max="10752" width="9.140625" style="1"/>
-    <col min="10753" max="10753" width="27.5703125" style="1" customWidth="1"/>
-    <col min="10754" max="10761" width="13" style="1" customWidth="1"/>
-    <col min="10762" max="11008" width="9.140625" style="1"/>
-    <col min="11009" max="11009" width="27.5703125" style="1" customWidth="1"/>
-    <col min="11010" max="11017" width="13" style="1" customWidth="1"/>
-    <col min="11018" max="11264" width="9.140625" style="1"/>
-    <col min="11265" max="11265" width="27.5703125" style="1" customWidth="1"/>
-    <col min="11266" max="11273" width="13" style="1" customWidth="1"/>
-    <col min="11274" max="11520" width="9.140625" style="1"/>
-    <col min="11521" max="11521" width="27.5703125" style="1" customWidth="1"/>
-    <col min="11522" max="11529" width="13" style="1" customWidth="1"/>
-    <col min="11530" max="11776" width="9.140625" style="1"/>
-    <col min="11777" max="11777" width="27.5703125" style="1" customWidth="1"/>
-    <col min="11778" max="11785" width="13" style="1" customWidth="1"/>
-    <col min="11786" max="12032" width="9.140625" style="1"/>
-    <col min="12033" max="12033" width="27.5703125" style="1" customWidth="1"/>
-    <col min="12034" max="12041" width="13" style="1" customWidth="1"/>
-    <col min="12042" max="12288" width="9.140625" style="1"/>
-    <col min="12289" max="12289" width="27.5703125" style="1" customWidth="1"/>
-    <col min="12290" max="12297" width="13" style="1" customWidth="1"/>
-    <col min="12298" max="12544" width="9.140625" style="1"/>
-    <col min="12545" max="12545" width="27.5703125" style="1" customWidth="1"/>
-    <col min="12546" max="12553" width="13" style="1" customWidth="1"/>
-    <col min="12554" max="12800" width="9.140625" style="1"/>
-    <col min="12801" max="12801" width="27.5703125" style="1" customWidth="1"/>
-    <col min="12802" max="12809" width="13" style="1" customWidth="1"/>
-    <col min="12810" max="13056" width="9.140625" style="1"/>
-    <col min="13057" max="13057" width="27.5703125" style="1" customWidth="1"/>
-    <col min="13058" max="13065" width="13" style="1" customWidth="1"/>
-    <col min="13066" max="13312" width="9.140625" style="1"/>
-    <col min="13313" max="13313" width="27.5703125" style="1" customWidth="1"/>
-    <col min="13314" max="13321" width="13" style="1" customWidth="1"/>
-    <col min="13322" max="13568" width="9.140625" style="1"/>
-    <col min="13569" max="13569" width="27.5703125" style="1" customWidth="1"/>
-    <col min="13570" max="13577" width="13" style="1" customWidth="1"/>
-    <col min="13578" max="13824" width="9.140625" style="1"/>
-    <col min="13825" max="13825" width="27.5703125" style="1" customWidth="1"/>
-    <col min="13826" max="13833" width="13" style="1" customWidth="1"/>
-    <col min="13834" max="14080" width="9.140625" style="1"/>
-    <col min="14081" max="14081" width="27.5703125" style="1" customWidth="1"/>
-    <col min="14082" max="14089" width="13" style="1" customWidth="1"/>
-    <col min="14090" max="14336" width="9.140625" style="1"/>
-    <col min="14337" max="14337" width="27.5703125" style="1" customWidth="1"/>
-    <col min="14338" max="14345" width="13" style="1" customWidth="1"/>
-    <col min="14346" max="14592" width="9.140625" style="1"/>
-    <col min="14593" max="14593" width="27.5703125" style="1" customWidth="1"/>
-    <col min="14594" max="14601" width="13" style="1" customWidth="1"/>
-    <col min="14602" max="14848" width="9.140625" style="1"/>
-    <col min="14849" max="14849" width="27.5703125" style="1" customWidth="1"/>
-    <col min="14850" max="14857" width="13" style="1" customWidth="1"/>
-    <col min="14858" max="15104" width="9.140625" style="1"/>
-    <col min="15105" max="15105" width="27.5703125" style="1" customWidth="1"/>
-    <col min="15106" max="15113" width="13" style="1" customWidth="1"/>
-    <col min="15114" max="15360" width="9.140625" style="1"/>
-    <col min="15361" max="15361" width="27.5703125" style="1" customWidth="1"/>
-    <col min="15362" max="15369" width="13" style="1" customWidth="1"/>
-    <col min="15370" max="15616" width="9.140625" style="1"/>
-    <col min="15617" max="15617" width="27.5703125" style="1" customWidth="1"/>
-    <col min="15618" max="15625" width="13" style="1" customWidth="1"/>
-    <col min="15626" max="15872" width="9.140625" style="1"/>
-    <col min="15873" max="15873" width="27.5703125" style="1" customWidth="1"/>
-    <col min="15874" max="15881" width="13" style="1" customWidth="1"/>
-    <col min="15882" max="16128" width="9.140625" style="1"/>
-    <col min="16129" max="16129" width="27.5703125" style="1" customWidth="1"/>
-    <col min="16130" max="16137" width="13" style="1" customWidth="1"/>
-    <col min="16138" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="31" style="2" customWidth="1"/>
+    <col min="2" max="10" width="8.71428571428571" style="2" customWidth="1"/>
+    <col min="11" max="256" width="9.14285714285714" style="2"/>
+    <col min="257" max="257" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="258" max="265" width="13" style="2" customWidth="1"/>
+    <col min="266" max="512" width="9.14285714285714" style="2"/>
+    <col min="513" max="513" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="514" max="521" width="13" style="2" customWidth="1"/>
+    <col min="522" max="768" width="9.14285714285714" style="2"/>
+    <col min="769" max="769" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="770" max="777" width="13" style="2" customWidth="1"/>
+    <col min="778" max="1024" width="9.14285714285714" style="2"/>
+    <col min="1025" max="1025" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="1026" max="1033" width="13" style="2" customWidth="1"/>
+    <col min="1034" max="1280" width="9.14285714285714" style="2"/>
+    <col min="1281" max="1281" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="1282" max="1289" width="13" style="2" customWidth="1"/>
+    <col min="1290" max="1536" width="9.14285714285714" style="2"/>
+    <col min="1537" max="1537" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="1538" max="1545" width="13" style="2" customWidth="1"/>
+    <col min="1546" max="1792" width="9.14285714285714" style="2"/>
+    <col min="1793" max="1793" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="1794" max="1801" width="13" style="2" customWidth="1"/>
+    <col min="1802" max="2048" width="9.14285714285714" style="2"/>
+    <col min="2049" max="2049" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="2050" max="2057" width="13" style="2" customWidth="1"/>
+    <col min="2058" max="2304" width="9.14285714285714" style="2"/>
+    <col min="2305" max="2305" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="2306" max="2313" width="13" style="2" customWidth="1"/>
+    <col min="2314" max="2560" width="9.14285714285714" style="2"/>
+    <col min="2561" max="2561" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="2562" max="2569" width="13" style="2" customWidth="1"/>
+    <col min="2570" max="2816" width="9.14285714285714" style="2"/>
+    <col min="2817" max="2817" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="2818" max="2825" width="13" style="2" customWidth="1"/>
+    <col min="2826" max="3072" width="9.14285714285714" style="2"/>
+    <col min="3073" max="3073" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="3074" max="3081" width="13" style="2" customWidth="1"/>
+    <col min="3082" max="3328" width="9.14285714285714" style="2"/>
+    <col min="3329" max="3329" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="3330" max="3337" width="13" style="2" customWidth="1"/>
+    <col min="3338" max="3584" width="9.14285714285714" style="2"/>
+    <col min="3585" max="3585" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="3586" max="3593" width="13" style="2" customWidth="1"/>
+    <col min="3594" max="3840" width="9.14285714285714" style="2"/>
+    <col min="3841" max="3841" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="3842" max="3849" width="13" style="2" customWidth="1"/>
+    <col min="3850" max="4096" width="9.14285714285714" style="2"/>
+    <col min="4097" max="4097" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="4098" max="4105" width="13" style="2" customWidth="1"/>
+    <col min="4106" max="4352" width="9.14285714285714" style="2"/>
+    <col min="4353" max="4353" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="4354" max="4361" width="13" style="2" customWidth="1"/>
+    <col min="4362" max="4608" width="9.14285714285714" style="2"/>
+    <col min="4609" max="4609" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="4610" max="4617" width="13" style="2" customWidth="1"/>
+    <col min="4618" max="4864" width="9.14285714285714" style="2"/>
+    <col min="4865" max="4865" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="4866" max="4873" width="13" style="2" customWidth="1"/>
+    <col min="4874" max="5120" width="9.14285714285714" style="2"/>
+    <col min="5121" max="5121" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="5122" max="5129" width="13" style="2" customWidth="1"/>
+    <col min="5130" max="5376" width="9.14285714285714" style="2"/>
+    <col min="5377" max="5377" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="5378" max="5385" width="13" style="2" customWidth="1"/>
+    <col min="5386" max="5632" width="9.14285714285714" style="2"/>
+    <col min="5633" max="5633" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="5634" max="5641" width="13" style="2" customWidth="1"/>
+    <col min="5642" max="5888" width="9.14285714285714" style="2"/>
+    <col min="5889" max="5889" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="5890" max="5897" width="13" style="2" customWidth="1"/>
+    <col min="5898" max="6144" width="9.14285714285714" style="2"/>
+    <col min="6145" max="6145" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="6146" max="6153" width="13" style="2" customWidth="1"/>
+    <col min="6154" max="6400" width="9.14285714285714" style="2"/>
+    <col min="6401" max="6401" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="6402" max="6409" width="13" style="2" customWidth="1"/>
+    <col min="6410" max="6656" width="9.14285714285714" style="2"/>
+    <col min="6657" max="6657" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="6658" max="6665" width="13" style="2" customWidth="1"/>
+    <col min="6666" max="6912" width="9.14285714285714" style="2"/>
+    <col min="6913" max="6913" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="6914" max="6921" width="13" style="2" customWidth="1"/>
+    <col min="6922" max="7168" width="9.14285714285714" style="2"/>
+    <col min="7169" max="7169" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="7170" max="7177" width="13" style="2" customWidth="1"/>
+    <col min="7178" max="7424" width="9.14285714285714" style="2"/>
+    <col min="7425" max="7425" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="7426" max="7433" width="13" style="2" customWidth="1"/>
+    <col min="7434" max="7680" width="9.14285714285714" style="2"/>
+    <col min="7681" max="7681" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="7682" max="7689" width="13" style="2" customWidth="1"/>
+    <col min="7690" max="7936" width="9.14285714285714" style="2"/>
+    <col min="7937" max="7937" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="7938" max="7945" width="13" style="2" customWidth="1"/>
+    <col min="7946" max="8192" width="9.14285714285714" style="2"/>
+    <col min="8193" max="8193" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="8194" max="8201" width="13" style="2" customWidth="1"/>
+    <col min="8202" max="8448" width="9.14285714285714" style="2"/>
+    <col min="8449" max="8449" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="8450" max="8457" width="13" style="2" customWidth="1"/>
+    <col min="8458" max="8704" width="9.14285714285714" style="2"/>
+    <col min="8705" max="8705" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="8706" max="8713" width="13" style="2" customWidth="1"/>
+    <col min="8714" max="8960" width="9.14285714285714" style="2"/>
+    <col min="8961" max="8961" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="8962" max="8969" width="13" style="2" customWidth="1"/>
+    <col min="8970" max="9216" width="9.14285714285714" style="2"/>
+    <col min="9217" max="9217" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="9218" max="9225" width="13" style="2" customWidth="1"/>
+    <col min="9226" max="9472" width="9.14285714285714" style="2"/>
+    <col min="9473" max="9473" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="9474" max="9481" width="13" style="2" customWidth="1"/>
+    <col min="9482" max="9728" width="9.14285714285714" style="2"/>
+    <col min="9729" max="9729" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="9730" max="9737" width="13" style="2" customWidth="1"/>
+    <col min="9738" max="9984" width="9.14285714285714" style="2"/>
+    <col min="9985" max="9985" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="9986" max="9993" width="13" style="2" customWidth="1"/>
+    <col min="9994" max="10240" width="9.14285714285714" style="2"/>
+    <col min="10241" max="10241" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="10242" max="10249" width="13" style="2" customWidth="1"/>
+    <col min="10250" max="10496" width="9.14285714285714" style="2"/>
+    <col min="10497" max="10497" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="10498" max="10505" width="13" style="2" customWidth="1"/>
+    <col min="10506" max="10752" width="9.14285714285714" style="2"/>
+    <col min="10753" max="10753" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="10754" max="10761" width="13" style="2" customWidth="1"/>
+    <col min="10762" max="11008" width="9.14285714285714" style="2"/>
+    <col min="11009" max="11009" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="11010" max="11017" width="13" style="2" customWidth="1"/>
+    <col min="11018" max="11264" width="9.14285714285714" style="2"/>
+    <col min="11265" max="11265" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="11266" max="11273" width="13" style="2" customWidth="1"/>
+    <col min="11274" max="11520" width="9.14285714285714" style="2"/>
+    <col min="11521" max="11521" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="11522" max="11529" width="13" style="2" customWidth="1"/>
+    <col min="11530" max="11776" width="9.14285714285714" style="2"/>
+    <col min="11777" max="11777" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="11778" max="11785" width="13" style="2" customWidth="1"/>
+    <col min="11786" max="12032" width="9.14285714285714" style="2"/>
+    <col min="12033" max="12033" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="12034" max="12041" width="13" style="2" customWidth="1"/>
+    <col min="12042" max="12288" width="9.14285714285714" style="2"/>
+    <col min="12289" max="12289" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="12290" max="12297" width="13" style="2" customWidth="1"/>
+    <col min="12298" max="12544" width="9.14285714285714" style="2"/>
+    <col min="12545" max="12545" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="12546" max="12553" width="13" style="2" customWidth="1"/>
+    <col min="12554" max="12800" width="9.14285714285714" style="2"/>
+    <col min="12801" max="12801" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="12802" max="12809" width="13" style="2" customWidth="1"/>
+    <col min="12810" max="13056" width="9.14285714285714" style="2"/>
+    <col min="13057" max="13057" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="13058" max="13065" width="13" style="2" customWidth="1"/>
+    <col min="13066" max="13312" width="9.14285714285714" style="2"/>
+    <col min="13313" max="13313" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="13314" max="13321" width="13" style="2" customWidth="1"/>
+    <col min="13322" max="13568" width="9.14285714285714" style="2"/>
+    <col min="13569" max="13569" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="13570" max="13577" width="13" style="2" customWidth="1"/>
+    <col min="13578" max="13824" width="9.14285714285714" style="2"/>
+    <col min="13825" max="13825" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="13826" max="13833" width="13" style="2" customWidth="1"/>
+    <col min="13834" max="14080" width="9.14285714285714" style="2"/>
+    <col min="14081" max="14081" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="14082" max="14089" width="13" style="2" customWidth="1"/>
+    <col min="14090" max="14336" width="9.14285714285714" style="2"/>
+    <col min="14337" max="14337" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="14338" max="14345" width="13" style="2" customWidth="1"/>
+    <col min="14346" max="14592" width="9.14285714285714" style="2"/>
+    <col min="14593" max="14593" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="14594" max="14601" width="13" style="2" customWidth="1"/>
+    <col min="14602" max="14848" width="9.14285714285714" style="2"/>
+    <col min="14849" max="14849" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="14850" max="14857" width="13" style="2" customWidth="1"/>
+    <col min="14858" max="15104" width="9.14285714285714" style="2"/>
+    <col min="15105" max="15105" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="15106" max="15113" width="13" style="2" customWidth="1"/>
+    <col min="15114" max="15360" width="9.14285714285714" style="2"/>
+    <col min="15361" max="15361" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="15362" max="15369" width="13" style="2" customWidth="1"/>
+    <col min="15370" max="15616" width="9.14285714285714" style="2"/>
+    <col min="15617" max="15617" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="15618" max="15625" width="13" style="2" customWidth="1"/>
+    <col min="15626" max="15872" width="9.14285714285714" style="2"/>
+    <col min="15873" max="15873" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="15874" max="15881" width="13" style="2" customWidth="1"/>
+    <col min="15882" max="16128" width="9.14285714285714" style="2"/>
+    <col min="16129" max="16129" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="16130" max="16137" width="13" style="2" customWidth="1"/>
+    <col min="16138" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" ht="36.75" customHeight="1" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" ht="16.5" customHeight="1" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6">
+        <v>2014</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2016</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2017</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2018</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2019</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2020</v>
+      </c>
+      <c r="I3" s="7">
+        <v>2021</v>
+      </c>
+      <c r="J3" s="7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" ht="24.75" customHeight="1" spans="1:10">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4">
-        <v>2014</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2015</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2016</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2017</v>
-      </c>
-      <c r="F3" s="5">
-        <v>2018</v>
-      </c>
-      <c r="G3" s="5">
-        <v>2019</v>
-      </c>
-      <c r="H3" s="5">
-        <v>2020</v>
-      </c>
-      <c r="I3" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>1</v>
-      </c>
       <c r="B4" s="9">
-        <v>5304</v>
+        <v>5291.055678894</v>
       </c>
       <c r="C4" s="9">
-        <v>6008.7606941600006</v>
+        <v>6008.76069416</v>
       </c>
       <c r="D4" s="9">
-        <v>6202</v>
+        <v>6201.611055771</v>
       </c>
       <c r="E4" s="9">
-        <v>7141</v>
+        <v>7141.353199186</v>
       </c>
       <c r="F4" s="9">
         <v>8522</v>
       </c>
       <c r="G4" s="9">
-        <v>8579</v>
+        <v>8528.496384015</v>
       </c>
       <c r="H4" s="9">
-        <v>7952</v>
+        <v>7951.697633407</v>
       </c>
       <c r="I4" s="9">
-        <v>9063</v>
+        <v>9062.865886582</v>
+      </c>
+      <c r="J4" s="9">
+        <v>9899.555091568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1555.066175421</v>
+      </c>
+      <c r="C5" s="11">
+        <v>2102.89401335</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1862.06341193</v>
+      </c>
+      <c r="E5" s="11">
+        <v>2418.028077165</v>
+      </c>
+      <c r="F5" s="11">
+        <v>3356</v>
+      </c>
+      <c r="G5" s="11">
+        <v>2959.494331817</v>
+      </c>
+      <c r="H5" s="11">
+        <v>2655.752394478</v>
+      </c>
+      <c r="I5" s="11">
+        <v>2977.375615627</v>
+      </c>
+      <c r="J5" s="11">
+        <v>3188.766007321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13">
+        <v>3735.989503473</v>
+      </c>
+      <c r="C6" s="13">
+        <v>3905.86668081</v>
+      </c>
+      <c r="D6" s="13">
+        <v>4339.547643841</v>
+      </c>
+      <c r="E6" s="13">
+        <v>4723.325122021</v>
+      </c>
+      <c r="F6" s="13">
+        <v>5166</v>
+      </c>
+      <c r="G6" s="13">
+        <v>5569.002052198</v>
+      </c>
+      <c r="H6" s="13">
+        <v>5295.945238929</v>
+      </c>
+      <c r="I6" s="13">
+        <v>6085.490270955</v>
+      </c>
+      <c r="J6" s="13">
+        <v>6710.789084247</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>